--- a/1-data/1-research/cities.v2.xlsx
+++ b/1-data/1-research/cities.v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D227"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2888,16 +2888,16 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Turin</t>
+          <t>Reykjavik</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2405</v>
+        <v>1510</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -2906,16 +2906,16 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Turin</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>12964</v>
+        <v>2405</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -2924,16 +2924,16 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Phnom Penh</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>11478</v>
+        <v>12964</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -2942,16 +2942,16 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Phnom Penh</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>12389</v>
+        <v>11478</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -2960,16 +2960,16 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4337</v>
+        <v>12389</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Kaunas</t>
+          <t>Beirut</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3294</v>
+        <v>4337</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -2996,34 +2996,34 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Kaunas</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2253</v>
+        <v>3294</v>
       </c>
       <c r="D143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3269</v>
+        <v>2253</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -3032,16 +3032,16 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Riga</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>154</v>
+        <v>3269</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -3050,34 +3050,34 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Timbuktu</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1717</v>
+        <v>154</v>
       </c>
       <c r="D146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Ulaanbaatar</t>
+          <t>Timbuktu</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>9602</v>
+        <v>1717</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -3086,43 +3086,43 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Kuala Lumpur</t>
+          <t>Ulaanbaatar</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>11139</v>
+        <v>9602</v>
       </c>
       <c r="D148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Abuna</t>
+          <t>Kuala Lumpur</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>MYS</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2714</v>
+        <v>11139</v>
       </c>
       <c r="D149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Awka</t>
+          <t>Abuna</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2522</v>
+        <v>2714</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -3140,7 +3140,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Soba</t>
+          <t>Awka</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2681</v>
+        <v>2522</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -3158,16 +3158,16 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>'s-Hertogenbosch</t>
+          <t>Soba</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2194</v>
+        <v>2681</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -3176,7 +3176,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>'s-Hertogenbosch</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3185,16 +3185,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2167</v>
+        <v>2194</v>
       </c>
       <c r="D153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Arnhem</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2226</v>
+        <v>2167</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
@@ -3212,7 +3212,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Arnhem</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2205</v>
+        <v>2226</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -3230,7 +3230,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3239,16 +3239,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2269</v>
+        <v>2205</v>
       </c>
       <c r="D156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Leiden</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3257,16 +3257,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2138</v>
+        <v>2269</v>
       </c>
       <c r="D157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Leiden</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3275,16 +3275,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2220</v>
+        <v>2138</v>
       </c>
       <c r="D158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3293,16 +3293,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="D159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Rotterdam [The Hague]</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2123</v>
+        <v>2219</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
@@ -3320,7 +3320,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Tilburg</t>
+          <t>Rotterdam [The Hague]</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3329,16 +3329,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2183</v>
+        <v>2123</v>
       </c>
       <c r="D161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Tilburg</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3347,10 +3347,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="D162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
@@ -3374,16 +3374,16 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2493</v>
+        <v>2181</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
@@ -3392,7 +3392,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3401,34 +3401,34 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2429</v>
+        <v>2493</v>
       </c>
       <c r="D165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>13129</v>
+        <v>2429</v>
       </c>
       <c r="D166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>13121</v>
+        <v>13129</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -3446,25 +3446,25 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>723</v>
+        <v>13121</v>
       </c>
       <c r="D168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>528</v>
+        <v>723</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -3482,16 +3482,16 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Gdansk</t>
+          <t>Lima</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3060</v>
+        <v>528</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
@@ -3500,7 +3500,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Katowice</t>
+          <t>Gdansk</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3509,7 +3509,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3134</v>
+        <v>3060</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
@@ -3518,7 +3518,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Krakow</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3205</v>
+        <v>3134</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
@@ -3536,7 +3536,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Lodz</t>
+          <t>Krakow</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3153</v>
+        <v>3205</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
@@ -3554,7 +3554,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Poznan</t>
+          <t>Lodz</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3012</v>
+        <v>3153</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
@@ -3572,7 +3572,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Szczecin</t>
+          <t>Poznan</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2907</v>
+        <v>3012</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
@@ -3590,7 +3590,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Szczecin</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3599,16 +3599,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3216</v>
+        <v>2907</v>
       </c>
       <c r="D176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Wroclaw</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3617,61 +3617,61 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3031</v>
+        <v>3216</v>
       </c>
       <c r="D177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Wroclaw</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1551</v>
+        <v>3031</v>
       </c>
       <c r="D178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Jerusalem</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>4351</v>
+        <v>1551</v>
       </c>
       <c r="D179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Jerusalem</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3675</v>
+        <v>4351</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
@@ -3680,7 +3680,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Saint Petersburg</t>
+          <t>Moscow</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>3396</v>
+        <v>3675</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
@@ -3698,16 +3698,16 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Saint Petersburg</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>11498</v>
+        <v>3396</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
@@ -3716,16 +3716,16 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Ljubljana</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2965</v>
+        <v>11498</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
@@ -3734,25 +3734,25 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Gothenburg</t>
+          <t>Ljubljana</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2682</v>
+        <v>2965</v>
       </c>
       <c r="D184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Malmö</t>
+          <t>Gothenburg</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3761,16 +3761,16 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2798</v>
+        <v>2682</v>
       </c>
       <c r="D185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Malmö</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3779,43 +3779,43 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2973</v>
+        <v>2798</v>
       </c>
       <c r="D186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Bangkok</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>10715</v>
+        <v>2973</v>
       </c>
       <c r="D187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Bangkok</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3562</v>
+        <v>10715</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -3824,16 +3824,16 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Istanbul</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3517</v>
+        <v>3562</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
@@ -3842,16 +3842,16 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Montevideo</t>
+          <t>Kyiv</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1138</v>
+        <v>3517</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
@@ -3860,16 +3860,16 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Montevideo</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>196</v>
+        <v>1138</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
@@ -3878,7 +3878,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Albuquerque</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="D192" t="b">
         <v>0</v>
@@ -3896,7 +3896,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Batavia</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>644</v>
+        <v>273</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
@@ -3914,7 +3914,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Batavia</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1022</v>
+        <v>644</v>
       </c>
       <c r="D194" t="b">
         <v>0</v>
@@ -3932,7 +3932,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Boulder</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>277</v>
+        <v>1022</v>
       </c>
       <c r="D195" t="b">
         <v>0</v>
@@ -3950,7 +3950,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Boulder</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3959,16 +3959,16 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>634</v>
+        <v>277</v>
       </c>
       <c r="D196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>323</v>
+        <v>634</v>
       </c>
       <c r="D197" t="b">
         <v>1</v>
@@ -3986,7 +3986,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3995,16 +3995,16 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="D198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
@@ -4022,7 +4022,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Eugene</t>
+          <t>Denver</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
@@ -4040,7 +4040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Fort Collins</t>
+          <t>Eugene</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="D201" t="b">
         <v>0</v>
@@ -4058,7 +4058,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Fort Collins</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4067,16 +4067,16 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Huntsville</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>502</v>
+        <v>315</v>
       </c>
       <c r="D203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Huntsville</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4103,16 +4103,16 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>14</v>
+        <v>502</v>
       </c>
       <c r="D204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4121,16 +4121,16 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>637</v>
+        <v>14</v>
       </c>
       <c r="D205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>443</v>
+        <v>637</v>
       </c>
       <c r="D206" t="b">
         <v>0</v>
@@ -4148,7 +4148,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>556</v>
+        <v>443</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
@@ -4166,7 +4166,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>New Orleans</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
@@ -4184,7 +4184,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>New Orleans</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4193,16 +4193,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>945</v>
+        <v>400</v>
       </c>
       <c r="D209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4211,16 +4211,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>568</v>
+        <v>945</v>
       </c>
       <c r="D210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Orlando</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>898</v>
+        <v>568</v>
       </c>
       <c r="D211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>79</v>
+        <v>898</v>
       </c>
       <c r="D212" t="b">
         <v>1</v>
@@ -4256,7 +4256,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -4283,16 +4283,16 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1045</v>
+        <v>101</v>
       </c>
       <c r="D214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Providence</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1009</v>
+        <v>1045</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
@@ -4310,7 +4310,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Providence</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>49</v>
+        <v>1009</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
@@ -4328,7 +4328,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Sacramento</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4337,7 +4337,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D217" t="b">
         <v>0</v>
@@ -4346,7 +4346,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Santa Barbara</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4355,7 +4355,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D218" t="b">
         <v>0</v>
@@ -4364,7 +4364,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Santa Barbara</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
@@ -4382,7 +4382,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4391,7 +4391,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
@@ -4400,7 +4400,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Stockton</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
@@ -4418,7 +4418,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Stockton</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
@@ -4436,7 +4436,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Washington D.C.</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>855</v>
+        <v>84</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
@@ -4454,7 +4454,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Waterloo</t>
+          <t>Washington D.C.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4463,7 +4463,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>513</v>
+        <v>855</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
@@ -4472,16 +4472,16 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Ho Chi Minh City</t>
+          <t>Waterloo</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>11800</v>
+        <v>513</v>
       </c>
       <c r="D225" t="b">
         <v>0</v>
@@ -4490,16 +4490,16 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Ho Chi Minh City</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3268</v>
+        <v>11800</v>
       </c>
       <c r="D226" t="b">
         <v>0</v>
@@ -4508,18 +4508,36 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>3268</v>
+      </c>
+      <c r="D227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
           <t>Johannesburg</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>ZAF</t>
         </is>
       </c>
-      <c r="C227" t="n">
+      <c r="C228" t="n">
         <v>3673</v>
       </c>
-      <c r="D227" t="b">
+      <c r="D228" t="b">
         <v>0</v>
       </c>
     </row>

--- a/1-data/1-research/cities.v2.xlsx
+++ b/1-data/1-research/cities.v2.xlsx
@@ -451,374 +451,374 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>original_dataset</t>
+          <t>priority</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>'s-Hertogenbosch</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1105</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
+        <v>2194</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>La Plata</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1117</v>
-      </c>
-      <c r="D3" t="b">
+        <v>2167</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Arnhem</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12977</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
+        <v>2226</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13076</v>
-      </c>
-      <c r="D5" t="b">
+        <v>2205</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13023</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
+        <v>2269</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Perth</t>
+          <t>Leiden</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11640</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
+        <v>2138</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13043</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
+        <v>2220</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Graz</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
+        <v>2219</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Innsbruck</t>
+          <t>Rotterdam [The Hague]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2788</v>
-      </c>
-      <c r="D10" t="b">
+        <v>2123</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Linz</t>
+          <t>Tilburg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2936</v>
-      </c>
-      <c r="D11" t="b">
+        <v>2183</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2885</v>
-      </c>
-      <c r="D12" t="b">
+        <v>2180</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3027</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
+        <v>2181</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Baku</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5528</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
+        <v>1105</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2133</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
+        <v>12977</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2135</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
+        <v>13023</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ghent</t>
+          <t>Perth</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2112</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
+        <v>11640</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3381</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
+        <v>13043</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Graz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3196</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>El Alto [La Paz]</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>849</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
+        <v>3027</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sucre</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>940</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
+        <v>2135</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -827,16 +827,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1242</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
+        <v>1361</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Salvador</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1218</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
+        <v>1420</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -863,52 +863,52 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1361</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
+        <v>1303</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1420</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
+        <v>362</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1303</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
+        <v>1017</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -917,1204 +917,1204 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>362</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
+        <v>875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Halifax</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1115</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
+        <v>2384</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>834</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
+        <v>906</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1017</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
+        <v>931</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>989</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
+        <v>621</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>875</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
+        <v>2927</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>187</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
+        <v>2851</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>160</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
+        <v>2531</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2392</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
+        <v>2518</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>Copenhagen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2384</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
+        <v>2749</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2314</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
+        <v>2051</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2463</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
+        <v>1701</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Tallinn</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>906</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
+        <v>3255</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Helsinki</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>931</v>
-      </c>
-      <c r="D40" t="b">
-        <v>1</v>
+        <v>3244</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10687</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
+        <v>2228</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>621</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
+        <v>2046</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3036</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ostrava</t>
+          <t>London</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3120</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
+        <v>1912</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>York</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2927</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
+        <v>1874</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aachen</t>
+          <t>Budapest</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2245</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
+        <v>3193</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2734</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
+        <v>6845</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bamberg</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2716</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
+        <v>6955</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Dublin</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2851</v>
-      </c>
-      <c r="D49" t="b">
-        <v>1</v>
+        <v>1656</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bielefeld</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2432</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
+        <v>2253</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Riga</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2439</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
+        <v>3269</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bremerhaven</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2417</v>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Brunswick</t>
+          <t>Kuala Lumpur</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>MYS</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2641</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
+        <v>11139</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Chemnitz</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2852</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
+        <v>2493</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cologne</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2310</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
+        <v>13129</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Constance</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2549</v>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
+        <v>13121</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2916</v>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
+        <v>3216</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2461</v>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
+        <v>1551</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Gothenburg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2276</v>
-      </c>
-      <c r="D59" t="b">
-        <v>0</v>
+        <v>2682</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dresden</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2887</v>
-      </c>
-      <c r="D60" t="b">
-        <v>0</v>
+        <v>2973</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2288</v>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
+        <v>634</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Erfurt</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2713</v>
-      </c>
-      <c r="D62" t="b">
-        <v>0</v>
+        <v>323</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Erlangen</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2733</v>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Flensburg</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2474</v>
-      </c>
-      <c r="D64" t="b">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frankfurt am Main</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2445</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
+        <v>945</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Freiburg im Breisgau</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2408</v>
-      </c>
-      <c r="D66" t="b">
-        <v>0</v>
+        <v>898</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Gera</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2799</v>
-      </c>
-      <c r="D67" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Görlitz</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2942</v>
-      </c>
-      <c r="D68" t="b">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Halle (Saale)</t>
+          <t>La Plata</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2782</v>
-      </c>
-      <c r="D69" t="b">
-        <v>0</v>
+        <v>1117</v>
+      </c>
+      <c r="D69" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2531</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
+        <v>13076</v>
+      </c>
+      <c r="D70" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Innsbruck</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2376</v>
-      </c>
-      <c r="D71" t="b">
-        <v>0</v>
+        <v>2788</v>
+      </c>
+      <c r="D71" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Heilbronn</t>
+          <t>Linz</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2527</v>
-      </c>
-      <c r="D72" t="b">
-        <v>0</v>
+        <v>2936</v>
+      </c>
+      <c r="D72" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Jena</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2757</v>
-      </c>
-      <c r="D73" t="b">
-        <v>0</v>
+        <v>2885</v>
+      </c>
+      <c r="D73" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Baku</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2390</v>
-      </c>
-      <c r="D74" t="b">
-        <v>0</v>
+        <v>5528</v>
+      </c>
+      <c r="D74" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2441</v>
-      </c>
-      <c r="D75" t="b">
-        <v>0</v>
+        <v>2133</v>
+      </c>
+      <c r="D75" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Kassel</t>
+          <t>Ghent</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2524</v>
-      </c>
-      <c r="D76" t="b">
-        <v>0</v>
+        <v>2112</v>
+      </c>
+      <c r="D76" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kiel</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2554</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
+        <v>3381</v>
+      </c>
+      <c r="D77" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Koblenz</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BIH</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2369</v>
-      </c>
-      <c r="D78" t="b">
-        <v>0</v>
+        <v>3196</v>
+      </c>
+      <c r="D78" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Leipzig</t>
+          <t>El Alto [La Paz]</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2806</v>
-      </c>
-      <c r="D79" t="b">
-        <v>0</v>
+        <v>849</v>
+      </c>
+      <c r="D79" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lübeck</t>
+          <t>Sucre</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2630</v>
-      </c>
-      <c r="D80" t="b">
-        <v>0</v>
+        <v>940</v>
+      </c>
+      <c r="D80" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2748</v>
-      </c>
-      <c r="D81" t="b">
-        <v>0</v>
+        <v>1242</v>
+      </c>
+      <c r="D81" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2442</v>
-      </c>
-      <c r="D82" t="b">
-        <v>0</v>
+        <v>1218</v>
+      </c>
+      <c r="D82" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Munich</t>
+          <t>Halifax</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2784</v>
-      </c>
-      <c r="D83" t="b">
-        <v>0</v>
+        <v>1115</v>
+      </c>
+      <c r="D83" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mönchengladbach</t>
+          <t>London</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2272</v>
-      </c>
-      <c r="D84" t="b">
-        <v>0</v>
+        <v>834</v>
+      </c>
+      <c r="D84" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Münster</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2359</v>
-      </c>
-      <c r="D85" t="b">
-        <v>0</v>
+        <v>989</v>
+      </c>
+      <c r="D85" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Nuremberg</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2730</v>
-      </c>
-      <c r="D86" t="b">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="D86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Oldenburg</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2395</v>
-      </c>
-      <c r="D87" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Osnabrück</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2389</v>
-      </c>
-      <c r="D88" t="b">
-        <v>0</v>
+        <v>2392</v>
+      </c>
+      <c r="D88" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2448</v>
-      </c>
-      <c r="D89" t="b">
-        <v>0</v>
+        <v>2314</v>
+      </c>
+      <c r="D89" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Potsdam</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2849</v>
-      </c>
-      <c r="D90" t="b">
-        <v>0</v>
+        <v>2463</v>
+      </c>
+      <c r="D90" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Beijing</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2818</v>
-      </c>
-      <c r="D91" t="b">
-        <v>0</v>
+        <v>10687</v>
+      </c>
+      <c r="D91" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Reinbek</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2584</v>
-      </c>
-      <c r="D92" t="b">
-        <v>0</v>
+        <v>3036</v>
+      </c>
+      <c r="D92" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Rostock</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2753</v>
-      </c>
-      <c r="D93" t="b">
-        <v>0</v>
+        <v>3120</v>
+      </c>
+      <c r="D93" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Saarbruecken</t>
+          <t>Aachen</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2325</v>
-      </c>
-      <c r="D94" t="b">
-        <v>0</v>
+        <v>2245</v>
+      </c>
+      <c r="D94" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2141,16 +2141,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2514</v>
-      </c>
-      <c r="D95" t="b">
-        <v>0</v>
+        <v>2734</v>
+      </c>
+      <c r="D95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Bamberg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2637</v>
-      </c>
-      <c r="D96" t="b">
-        <v>0</v>
+        <v>2716</v>
+      </c>
+      <c r="D96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wiesbaden</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2423</v>
-      </c>
-      <c r="D97" t="b">
-        <v>0</v>
+        <v>2432</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wuppertal</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2195,16 +2195,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2317</v>
-      </c>
-      <c r="D98" t="b">
-        <v>0</v>
+        <v>2439</v>
+      </c>
+      <c r="D98" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Würzburg</t>
+          <t>Bremerhaven</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2213,1816 +2213,1816 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2612</v>
-      </c>
-      <c r="D99" t="b">
-        <v>0</v>
+        <v>2417</v>
+      </c>
+      <c r="D99" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>Brunswick</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2518</v>
-      </c>
-      <c r="D100" t="b">
-        <v>1</v>
+        <v>2641</v>
+      </c>
+      <c r="D100" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
+          <t>Chemnitz</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2749</v>
-      </c>
-      <c r="D101" t="b">
-        <v>1</v>
+        <v>2852</v>
+      </c>
+      <c r="D101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cologne</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3751</v>
-      </c>
-      <c r="D102" t="b">
-        <v>0</v>
+        <v>2310</v>
+      </c>
+      <c r="D102" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>Constance</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3902</v>
-      </c>
-      <c r="D103" t="b">
-        <v>0</v>
+        <v>2549</v>
+      </c>
+      <c r="D103" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2051</v>
-      </c>
-      <c r="D104" t="b">
-        <v>1</v>
+        <v>2916</v>
+      </c>
+      <c r="D104" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1701</v>
-      </c>
-      <c r="D105" t="b">
-        <v>1</v>
+        <v>2461</v>
+      </c>
+      <c r="D105" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Palma de Mallorca</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2076</v>
-      </c>
-      <c r="D106" t="b">
-        <v>0</v>
+        <v>2276</v>
+      </c>
+      <c r="D106" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>Dresden</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3255</v>
-      </c>
-      <c r="D107" t="b">
-        <v>1</v>
+        <v>2887</v>
+      </c>
+      <c r="D107" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3244</v>
-      </c>
-      <c r="D108" t="b">
-        <v>1</v>
+        <v>2288</v>
+      </c>
+      <c r="D108" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Erfurt</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1897</v>
-      </c>
-      <c r="D109" t="b">
-        <v>0</v>
+        <v>2713</v>
+      </c>
+      <c r="D109" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Clermont-Ferrand</t>
+          <t>Erlangen</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2094</v>
-      </c>
-      <c r="D110" t="b">
-        <v>0</v>
+        <v>2733</v>
+      </c>
+      <c r="D110" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Colmar</t>
+          <t>Flensburg</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2372</v>
-      </c>
-      <c r="D111" t="b">
-        <v>0</v>
+        <v>2474</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Frankfurt am Main</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2186</v>
-      </c>
-      <c r="D112" t="b">
-        <v>0</v>
+        <v>2445</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Freiburg im Breisgau</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2228</v>
-      </c>
-      <c r="D113" t="b">
-        <v>1</v>
+        <v>2408</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Gera</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2130</v>
-      </c>
-      <c r="D114" t="b">
-        <v>0</v>
+        <v>2799</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Görlitz</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2046</v>
-      </c>
-      <c r="D115" t="b">
-        <v>1</v>
+        <v>2942</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Halle (Saale)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2394</v>
-      </c>
-      <c r="D116" t="b">
-        <v>0</v>
+        <v>2782</v>
+      </c>
+      <c r="D116" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D117" t="b">
-        <v>0</v>
+        <v>2376</v>
+      </c>
+      <c r="D117" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Heilbronn</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D118" t="b">
-        <v>1</v>
+        <v>2527</v>
+      </c>
+      <c r="D118" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Bristol</t>
+          <t>Jena</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1771</v>
-      </c>
-      <c r="D119" t="b">
-        <v>0</v>
+        <v>2757</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1965</v>
-      </c>
-      <c r="D120" t="b">
-        <v>0</v>
+        <v>2390</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1749</v>
-      </c>
-      <c r="D121" t="b">
-        <v>0</v>
+        <v>2441</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Greenock</t>
+          <t>Kassel</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1699</v>
-      </c>
-      <c r="D122" t="b">
-        <v>0</v>
+        <v>2524</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Kiel</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1819</v>
-      </c>
-      <c r="D123" t="b">
-        <v>0</v>
+        <v>2554</v>
+      </c>
+      <c r="D123" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Koblenz</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1751</v>
-      </c>
-      <c r="D124" t="b">
-        <v>0</v>
+        <v>2369</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Leipzig</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D125" t="b">
-        <v>1</v>
+        <v>2806</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Lübeck</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1780</v>
-      </c>
-      <c r="D126" t="b">
-        <v>0</v>
+        <v>2630</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sheffield</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1838</v>
-      </c>
-      <c r="D127" t="b">
-        <v>0</v>
+        <v>2748</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>York</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1874</v>
-      </c>
-      <c r="D128" t="b">
-        <v>1</v>
+        <v>2442</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Zagreb</t>
+          <t>Munich</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3032</v>
-      </c>
-      <c r="D129" t="b">
-        <v>0</v>
+        <v>2784</v>
+      </c>
+      <c r="D129" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>Mönchengladbach</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3193</v>
-      </c>
-      <c r="D130" t="b">
-        <v>1</v>
+        <v>2272</v>
+      </c>
+      <c r="D130" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6845</v>
-      </c>
-      <c r="D131" t="b">
-        <v>1</v>
+        <v>2359</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>New Delhi</t>
+          <t>Nuremberg</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6955</v>
-      </c>
-      <c r="D132" t="b">
-        <v>1</v>
+        <v>2730</v>
+      </c>
+      <c r="D132" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Cork</t>
+          <t>Oldenburg</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1593</v>
-      </c>
-      <c r="D133" t="b">
-        <v>0</v>
+        <v>2395</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Dublin</t>
+          <t>Osnabrück</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1656</v>
-      </c>
-      <c r="D134" t="b">
-        <v>1</v>
+        <v>2389</v>
+      </c>
+      <c r="D134" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Tehran</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>5737</v>
-      </c>
-      <c r="D135" t="b">
-        <v>0</v>
+        <v>2448</v>
+      </c>
+      <c r="D135" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Baghdad</t>
+          <t>Potsdam</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>5314</v>
-      </c>
-      <c r="D136" t="b">
-        <v>0</v>
+        <v>2849</v>
+      </c>
+      <c r="D136" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Reykjavik</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D137" t="b">
-        <v>0</v>
+        <v>2818</v>
+      </c>
+      <c r="D137" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Turin</t>
+          <t>Reinbek</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2405</v>
-      </c>
-      <c r="D138" t="b">
-        <v>0</v>
+        <v>2584</v>
+      </c>
+      <c r="D138" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Rostock</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>12964</v>
-      </c>
-      <c r="D139" t="b">
-        <v>0</v>
+        <v>2753</v>
+      </c>
+      <c r="D139" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Phnom Penh</t>
+          <t>Saarbruecken</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>11478</v>
-      </c>
-      <c r="D140" t="b">
-        <v>0</v>
+        <v>2325</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>12389</v>
-      </c>
-      <c r="D141" t="b">
-        <v>0</v>
+        <v>2514</v>
+      </c>
+      <c r="D141" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4337</v>
-      </c>
-      <c r="D142" t="b">
-        <v>0</v>
+        <v>2637</v>
+      </c>
+      <c r="D142" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Kaunas</t>
+          <t>Wiesbaden</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3294</v>
-      </c>
-      <c r="D143" t="b">
-        <v>0</v>
+        <v>2423</v>
+      </c>
+      <c r="D143" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Wuppertal</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2253</v>
-      </c>
-      <c r="D144" t="b">
-        <v>1</v>
+        <v>2317</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Würzburg</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3269</v>
-      </c>
-      <c r="D145" t="b">
-        <v>1</v>
+        <v>2612</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>154</v>
-      </c>
-      <c r="D146" t="b">
-        <v>1</v>
+        <v>3751</v>
+      </c>
+      <c r="D146" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Timbuktu</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1717</v>
-      </c>
-      <c r="D147" t="b">
-        <v>0</v>
+        <v>3902</v>
+      </c>
+      <c r="D147" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Ulaanbaatar</t>
+          <t>Palma de Mallorca</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>9602</v>
-      </c>
-      <c r="D148" t="b">
-        <v>0</v>
+        <v>2076</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Kuala Lumpur</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>11139</v>
-      </c>
-      <c r="D149" t="b">
-        <v>1</v>
+        <v>1897</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Abuna</t>
+          <t>Clermont-Ferrand</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2714</v>
-      </c>
-      <c r="D150" t="b">
-        <v>0</v>
+        <v>2094</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Awka</t>
+          <t>Colmar</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2522</v>
-      </c>
-      <c r="D151" t="b">
-        <v>0</v>
+        <v>2372</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Soba</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2681</v>
-      </c>
-      <c r="D152" t="b">
-        <v>0</v>
+        <v>2186</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>'s-Hertogenbosch</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2194</v>
-      </c>
-      <c r="D153" t="b">
-        <v>0</v>
+        <v>2130</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2167</v>
-      </c>
-      <c r="D154" t="b">
-        <v>1</v>
+        <v>2394</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Arnhem</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2226</v>
-      </c>
-      <c r="D155" t="b">
-        <v>1</v>
+        <v>2017</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Bristol</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2205</v>
-      </c>
-      <c r="D156" t="b">
-        <v>1</v>
+        <v>1771</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Cambridge</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2269</v>
-      </c>
-      <c r="D157" t="b">
-        <v>0</v>
+        <v>1965</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Leiden</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2138</v>
-      </c>
-      <c r="D158" t="b">
-        <v>1</v>
+        <v>1749</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Greenock</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2220</v>
-      </c>
-      <c r="D159" t="b">
-        <v>0</v>
+        <v>1699</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2219</v>
-      </c>
-      <c r="D160" t="b">
-        <v>1</v>
+        <v>1819</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Rotterdam [The Hague]</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2123</v>
-      </c>
-      <c r="D161" t="b">
-        <v>1</v>
+        <v>1751</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Tilburg</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2183</v>
-      </c>
-      <c r="D162" t="b">
-        <v>0</v>
+        <v>1780</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Sheffield</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2180</v>
-      </c>
-      <c r="D163" t="b">
-        <v>1</v>
+        <v>1838</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Zagreb</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2181</v>
-      </c>
-      <c r="D164" t="b">
-        <v>1</v>
+        <v>3032</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Cork</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2493</v>
-      </c>
-      <c r="D165" t="b">
-        <v>1</v>
+        <v>1593</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Tehran</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2429</v>
-      </c>
-      <c r="D166" t="b">
-        <v>0</v>
+        <v>5737</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Baghdad</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>13129</v>
-      </c>
-      <c r="D167" t="b">
-        <v>1</v>
+        <v>5314</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Reykjavik</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>13121</v>
-      </c>
-      <c r="D168" t="b">
-        <v>1</v>
+        <v>1510</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Turin</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>723</v>
-      </c>
-      <c r="D169" t="b">
-        <v>0</v>
+        <v>2405</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>528</v>
-      </c>
-      <c r="D170" t="b">
-        <v>0</v>
+        <v>12964</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Gdansk</t>
+          <t>Phnom Penh</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3060</v>
-      </c>
-      <c r="D171" t="b">
-        <v>0</v>
+        <v>11478</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Katowice</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3134</v>
-      </c>
-      <c r="D172" t="b">
-        <v>0</v>
+        <v>12389</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Krakow</t>
+          <t>Beirut</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3205</v>
-      </c>
-      <c r="D173" t="b">
-        <v>0</v>
+        <v>4337</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Lodz</t>
+          <t>Kaunas</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3153</v>
-      </c>
-      <c r="D174" t="b">
-        <v>0</v>
+        <v>3294</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Poznan</t>
+          <t>Timbuktu</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3012</v>
-      </c>
-      <c r="D175" t="b">
-        <v>0</v>
+        <v>1717</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Szczecin</t>
+          <t>Ulaanbaatar</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2907</v>
-      </c>
-      <c r="D176" t="b">
-        <v>0</v>
+        <v>9602</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Abuna</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3216</v>
-      </c>
-      <c r="D177" t="b">
-        <v>1</v>
+        <v>2714</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Wroclaw</t>
+          <t>Awka</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3031</v>
-      </c>
-      <c r="D178" t="b">
-        <v>0</v>
+        <v>2522</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Soba</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1551</v>
-      </c>
-      <c r="D179" t="b">
-        <v>1</v>
+        <v>2681</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Jerusalem</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>4351</v>
-      </c>
-      <c r="D180" t="b">
-        <v>0</v>
+        <v>2429</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>3675</v>
-      </c>
-      <c r="D181" t="b">
-        <v>0</v>
+        <v>723</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Saint Petersburg</t>
+          <t>Lima</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3396</v>
-      </c>
-      <c r="D182" t="b">
-        <v>0</v>
+        <v>528</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Gdansk</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>11498</v>
-      </c>
-      <c r="D183" t="b">
-        <v>0</v>
+        <v>3060</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Ljubljana</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2965</v>
-      </c>
-      <c r="D184" t="b">
-        <v>0</v>
+        <v>3134</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Gothenburg</t>
+          <t>Krakow</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2682</v>
-      </c>
-      <c r="D185" t="b">
-        <v>1</v>
+        <v>3205</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Malmö</t>
+          <t>Lodz</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2798</v>
-      </c>
-      <c r="D186" t="b">
-        <v>0</v>
+        <v>3153</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Poznan</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2973</v>
-      </c>
-      <c r="D187" t="b">
-        <v>1</v>
+        <v>3012</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Bangkok</t>
+          <t>Szczecin</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>10715</v>
-      </c>
-      <c r="D188" t="b">
-        <v>0</v>
+        <v>2907</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Wroclaw</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3562</v>
-      </c>
-      <c r="D189" t="b">
-        <v>0</v>
+        <v>3031</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Jerusalem</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3517</v>
-      </c>
-      <c r="D190" t="b">
-        <v>0</v>
+        <v>4351</v>
+      </c>
+      <c r="D190" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Montevideo</t>
+          <t>Moscow</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1138</v>
-      </c>
-      <c r="D191" t="b">
-        <v>0</v>
+        <v>3675</v>
+      </c>
+      <c r="D191" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Saint Petersburg</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>196</v>
-      </c>
-      <c r="D192" t="b">
-        <v>0</v>
+        <v>3396</v>
+      </c>
+      <c r="D192" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>273</v>
-      </c>
-      <c r="D193" t="b">
-        <v>0</v>
+        <v>11498</v>
+      </c>
+      <c r="D193" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Batavia</t>
+          <t>Ljubljana</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>644</v>
-      </c>
-      <c r="D194" t="b">
-        <v>0</v>
+        <v>2965</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Malmö</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1022</v>
-      </c>
-      <c r="D195" t="b">
-        <v>0</v>
+        <v>2798</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Boulder</t>
+          <t>Bangkok</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>277</v>
-      </c>
-      <c r="D196" t="b">
-        <v>0</v>
+        <v>10715</v>
+      </c>
+      <c r="D196" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Istanbul</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>634</v>
-      </c>
-      <c r="D197" t="b">
-        <v>1</v>
+        <v>3562</v>
+      </c>
+      <c r="D197" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Kyiv</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>323</v>
-      </c>
-      <c r="D198" t="b">
-        <v>1</v>
+        <v>3517</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Montevideo</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>40</v>
-      </c>
-      <c r="D199" t="b">
-        <v>0</v>
+        <v>1138</v>
+      </c>
+      <c r="D199" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Albuquerque</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4031,16 +4031,16 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>272</v>
-      </c>
-      <c r="D200" t="b">
-        <v>0</v>
+        <v>196</v>
+      </c>
+      <c r="D200" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Eugene</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4049,16 +4049,16 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>82</v>
-      </c>
-      <c r="D201" t="b">
-        <v>0</v>
+        <v>273</v>
+      </c>
+      <c r="D201" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Fort Collins</t>
+          <t>Batavia</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4067,16 +4067,16 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>295</v>
-      </c>
-      <c r="D202" t="b">
-        <v>0</v>
+        <v>644</v>
+      </c>
+      <c r="D202" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>315</v>
-      </c>
-      <c r="D203" t="b">
-        <v>1</v>
+        <v>1022</v>
+      </c>
+      <c r="D203" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Huntsville</t>
+          <t>Boulder</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4103,16 +4103,16 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>502</v>
-      </c>
-      <c r="D204" t="b">
-        <v>0</v>
+        <v>277</v>
+      </c>
+      <c r="D204" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4121,16 +4121,16 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>14</v>
-      </c>
-      <c r="D205" t="b">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="D205" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Denver</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4139,16 +4139,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>637</v>
-      </c>
-      <c r="D206" t="b">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="D206" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Eugene</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>443</v>
-      </c>
-      <c r="D207" t="b">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="D207" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Fort Collins</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4175,16 +4175,16 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>556</v>
-      </c>
-      <c r="D208" t="b">
-        <v>0</v>
+        <v>295</v>
+      </c>
+      <c r="D208" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>New Orleans</t>
+          <t>Huntsville</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4193,16 +4193,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>400</v>
-      </c>
-      <c r="D209" t="b">
-        <v>0</v>
+        <v>502</v>
+      </c>
+      <c r="D209" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4211,16 +4211,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>945</v>
-      </c>
-      <c r="D210" t="b">
-        <v>1</v>
+        <v>637</v>
+      </c>
+      <c r="D210" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>568</v>
-      </c>
-      <c r="D211" t="b">
-        <v>0</v>
+        <v>443</v>
+      </c>
+      <c r="D211" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4247,16 +4247,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>898</v>
-      </c>
-      <c r="D212" t="b">
-        <v>1</v>
+        <v>556</v>
+      </c>
+      <c r="D212" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>New Orleans</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4265,16 +4265,16 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>79</v>
-      </c>
-      <c r="D213" t="b">
-        <v>1</v>
+        <v>400</v>
+      </c>
+      <c r="D213" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Orlando</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>101</v>
-      </c>
-      <c r="D214" t="b">
-        <v>1</v>
+        <v>568</v>
+      </c>
+      <c r="D214" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="215">
@@ -4303,8 +4303,8 @@
       <c r="C215" t="n">
         <v>1045</v>
       </c>
-      <c r="D215" t="b">
-        <v>0</v>
+      <c r="D215" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="216">
@@ -4321,8 +4321,8 @@
       <c r="C216" t="n">
         <v>1009</v>
       </c>
-      <c r="D216" t="b">
-        <v>0</v>
+      <c r="D216" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="217">
@@ -4339,8 +4339,8 @@
       <c r="C217" t="n">
         <v>49</v>
       </c>
-      <c r="D217" t="b">
-        <v>0</v>
+      <c r="D217" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="218">
@@ -4357,8 +4357,8 @@
       <c r="C218" t="n">
         <v>10</v>
       </c>
-      <c r="D218" t="b">
-        <v>0</v>
+      <c r="D218" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="219">
@@ -4375,8 +4375,8 @@
       <c r="C219" t="n">
         <v>5</v>
       </c>
-      <c r="D219" t="b">
-        <v>0</v>
+      <c r="D219" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="220">
@@ -4393,8 +4393,8 @@
       <c r="C220" t="n">
         <v>6</v>
       </c>
-      <c r="D220" t="b">
-        <v>0</v>
+      <c r="D220" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="221">
@@ -4411,8 +4411,8 @@
       <c r="C221" t="n">
         <v>140</v>
       </c>
-      <c r="D221" t="b">
-        <v>0</v>
+      <c r="D221" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="222">
@@ -4429,8 +4429,8 @@
       <c r="C222" t="n">
         <v>34</v>
       </c>
-      <c r="D222" t="b">
-        <v>0</v>
+      <c r="D222" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="223">
@@ -4447,8 +4447,8 @@
       <c r="C223" t="n">
         <v>84</v>
       </c>
-      <c r="D223" t="b">
-        <v>0</v>
+      <c r="D223" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="224">
@@ -4465,8 +4465,8 @@
       <c r="C224" t="n">
         <v>855</v>
       </c>
-      <c r="D224" t="b">
-        <v>0</v>
+      <c r="D224" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="225">
@@ -4483,8 +4483,8 @@
       <c r="C225" t="n">
         <v>513</v>
       </c>
-      <c r="D225" t="b">
-        <v>0</v>
+      <c r="D225" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="226">
@@ -4501,8 +4501,8 @@
       <c r="C226" t="n">
         <v>11800</v>
       </c>
-      <c r="D226" t="b">
-        <v>0</v>
+      <c r="D226" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="227">
@@ -4519,8 +4519,8 @@
       <c r="C227" t="n">
         <v>3268</v>
       </c>
-      <c r="D227" t="b">
-        <v>0</v>
+      <c r="D227" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="228">
@@ -4537,8 +4537,8 @@
       <c r="C228" t="n">
         <v>3673</v>
       </c>
-      <c r="D228" t="b">
-        <v>0</v>
+      <c r="D228" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/1-data/1-research/cities.v2.xlsx
+++ b/1-data/1-research/cities.v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,34 +458,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>'s-Hertogenbosch</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2194</v>
+        <v>1303</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2167</v>
+        <v>2083</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -494,7 +494,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Arnhem</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2226</v>
+        <v>2167</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -512,7 +512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Arnhem</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2205</v>
+        <v>2226</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -530,7 +530,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2269</v>
+        <v>2205</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -548,7 +548,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Leiden</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2138</v>
+        <v>2269</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -566,7 +566,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Leiden</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2220</v>
+        <v>2138</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rotterdam [The Hague]</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2123</v>
+        <v>2219</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -620,7 +620,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tilburg</t>
+          <t>Rotterdam [The Hague]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2183</v>
+        <v>2123</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -638,7 +638,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Tilburg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -674,52 +674,52 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1105</v>
+        <v>2181</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>s-Hertogenbosch</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12977</v>
+        <v>2194</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13023</v>
+        <v>1105</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
@@ -728,7 +728,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Perth</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11640</v>
+        <v>12977</v>
       </c>
       <c r="D17" t="n">
         <v>10</v>
@@ -746,7 +746,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13043</v>
+        <v>13023</v>
       </c>
       <c r="D18" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Graz</t>
+          <t>Perth</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3000</v>
+        <v>11640</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
@@ -782,16 +782,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3027</v>
+        <v>13043</v>
       </c>
       <c r="D20" t="n">
         <v>10</v>
@@ -800,16 +800,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Graz</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2135</v>
+        <v>3000</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
@@ -818,16 +818,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1361</v>
+        <v>3027</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
@@ -836,16 +836,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1420</v>
+        <v>2135</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
@@ -854,7 +854,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1303</v>
+        <v>1361</v>
       </c>
       <c r="D24" t="n">
         <v>10</v>
@@ -872,16 +872,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>Salvador</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>362</v>
+        <v>1420</v>
       </c>
       <c r="D25" t="n">
         <v>10</v>
@@ -890,7 +890,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1017</v>
+        <v>362</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
@@ -908,7 +908,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>875</v>
+        <v>1017</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
@@ -926,16 +926,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2384</v>
+        <v>875</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
@@ -944,16 +944,16 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>906</v>
+        <v>2384</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
@@ -962,7 +962,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>931</v>
+        <v>906</v>
       </c>
       <c r="D30" t="n">
         <v>10</v>
@@ -980,16 +980,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>621</v>
+        <v>931</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -998,16 +998,16 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2927</v>
+        <v>621</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
@@ -1016,16 +1016,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2851</v>
+        <v>2927</v>
       </c>
       <c r="D33" t="n">
         <v>10</v>
@@ -1034,7 +1034,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2531</v>
+        <v>2851</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
@@ -1052,16 +1052,16 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2518</v>
+        <v>2531</v>
       </c>
       <c r="D35" t="n">
         <v>10</v>
@@ -1070,7 +1070,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2749</v>
+        <v>2518</v>
       </c>
       <c r="D36" t="n">
         <v>10</v>
@@ -1088,16 +1088,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Copenhagen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2051</v>
+        <v>2749</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
@@ -1106,7 +1106,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1701</v>
+        <v>2051</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -1124,16 +1124,16 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3255</v>
+        <v>1701</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
@@ -1142,16 +1142,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t>Tallinn</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3244</v>
+        <v>3255</v>
       </c>
       <c r="D40" t="n">
         <v>10</v>
@@ -1160,16 +1160,16 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Helsinki</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2228</v>
+        <v>3244</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2046</v>
+        <v>2228</v>
       </c>
       <c r="D42" t="n">
         <v>10</v>
@@ -1196,16 +1196,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1800</v>
+        <v>2046</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
@@ -1214,7 +1214,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1912</v>
+        <v>1800</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
@@ -1232,7 +1232,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>York</t>
+          <t>London</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1874</v>
+        <v>1912</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
@@ -1250,16 +1250,16 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>York</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3193</v>
+        <v>1874</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
@@ -1268,16 +1268,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Budapest</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6845</v>
+        <v>3193</v>
       </c>
       <c r="D47" t="n">
         <v>10</v>
@@ -1286,7 +1286,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>New Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6955</v>
+        <v>6845</v>
       </c>
       <c r="D48" t="n">
         <v>10</v>
@@ -1304,16 +1304,16 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Dublin</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1656</v>
+        <v>6955</v>
       </c>
       <c r="D49" t="n">
         <v>10</v>
@@ -1322,16 +1322,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Dublin</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2253</v>
+        <v>1656</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
@@ -1340,16 +1340,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3269</v>
+        <v>2253</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
@@ -1358,16 +1358,16 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Riga</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>154</v>
+        <v>3269</v>
       </c>
       <c r="D52" t="n">
         <v>10</v>
@@ -1376,16 +1376,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kuala Lumpur</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>11139</v>
+        <v>154</v>
       </c>
       <c r="D53" t="n">
         <v>10</v>
@@ -1394,16 +1394,16 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Kuala Lumpur</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>MYS</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2493</v>
+        <v>11139</v>
       </c>
       <c r="D54" t="n">
         <v>10</v>
@@ -1412,16 +1412,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>13129</v>
+        <v>2493</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
@@ -1430,7 +1430,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>13121</v>
+        <v>13129</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
@@ -1448,16 +1448,16 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3216</v>
+        <v>13121</v>
       </c>
       <c r="D57" t="n">
         <v>10</v>
@@ -1466,16 +1466,16 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1551</v>
+        <v>3216</v>
       </c>
       <c r="D58" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Gothenburg</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2682</v>
+        <v>1551</v>
       </c>
       <c r="D59" t="n">
         <v>10</v>
@@ -1502,7 +1502,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Gothenburg</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2973</v>
+        <v>2682</v>
       </c>
       <c r="D60" t="n">
         <v>10</v>
@@ -1520,16 +1520,16 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>634</v>
+        <v>2973</v>
       </c>
       <c r="D61" t="n">
         <v>10</v>
@@ -1538,7 +1538,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>323</v>
+        <v>634</v>
       </c>
       <c r="D62" t="n">
         <v>10</v>
@@ -1556,7 +1556,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D63" t="n">
         <v>10</v>
@@ -1574,7 +1574,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="D64" t="n">
         <v>10</v>
@@ -1592,7 +1592,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>945</v>
+        <v>14</v>
       </c>
       <c r="D65" t="n">
         <v>10</v>
@@ -1610,7 +1610,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>898</v>
+        <v>945</v>
       </c>
       <c r="D66" t="n">
         <v>10</v>
@@ -1628,7 +1628,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>79</v>
+        <v>898</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
@@ -1646,7 +1646,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D68" t="n">
         <v>10</v>
@@ -1664,34 +1664,34 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>La Plata</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1117</v>
+        <v>101</v>
       </c>
       <c r="D69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>La Plata</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>13076</v>
+        <v>1117</v>
       </c>
       <c r="D70" t="n">
         <v>11</v>
@@ -1700,16 +1700,16 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Innsbruck</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2788</v>
+        <v>13076</v>
       </c>
       <c r="D71" t="n">
         <v>11</v>
@@ -1718,7 +1718,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Linz</t>
+          <t>Innsbruck</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2936</v>
+        <v>2788</v>
       </c>
       <c r="D72" t="n">
         <v>11</v>
@@ -1736,7 +1736,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Linz</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2885</v>
+        <v>2936</v>
       </c>
       <c r="D73" t="n">
         <v>11</v>
@@ -1754,16 +1754,16 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Baku</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5528</v>
+        <v>2885</v>
       </c>
       <c r="D74" t="n">
         <v>11</v>
@@ -1772,16 +1772,16 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Baku</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2133</v>
+        <v>5528</v>
       </c>
       <c r="D75" t="n">
         <v>11</v>
@@ -1790,7 +1790,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ghent</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2112</v>
+        <v>2133</v>
       </c>
       <c r="D76" t="n">
         <v>11</v>
@@ -1808,16 +1808,16 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Ghent</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3381</v>
+        <v>2112</v>
       </c>
       <c r="D77" t="n">
         <v>11</v>
@@ -1826,16 +1826,16 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3196</v>
+        <v>3381</v>
       </c>
       <c r="D78" t="n">
         <v>11</v>
@@ -1844,16 +1844,16 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>El Alto [La Paz]</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>BIH</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>849</v>
+        <v>3196</v>
       </c>
       <c r="D79" t="n">
         <v>11</v>
@@ -1862,7 +1862,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sucre</t>
+          <t>El Alto [La Paz]</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>940</v>
+        <v>849</v>
       </c>
       <c r="D80" t="n">
         <v>11</v>
@@ -1880,16 +1880,16 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Sucre</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1242</v>
+        <v>940</v>
       </c>
       <c r="D81" t="n">
         <v>11</v>
@@ -1898,7 +1898,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1218</v>
+        <v>1242</v>
       </c>
       <c r="D82" t="n">
         <v>11</v>
@@ -1916,16 +1916,16 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Halifax</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1115</v>
+        <v>1218</v>
       </c>
       <c r="D83" t="n">
         <v>11</v>
@@ -1934,7 +1934,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Halifax</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>834</v>
+        <v>1115</v>
       </c>
       <c r="D84" t="n">
         <v>11</v>
@@ -1952,7 +1952,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>London</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>989</v>
+        <v>834</v>
       </c>
       <c r="D85" t="n">
         <v>11</v>
@@ -1970,7 +1970,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1979,7 +1979,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>187</v>
+        <v>989</v>
       </c>
       <c r="D86" t="n">
         <v>11</v>
@@ -1988,7 +1988,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="D87" t="n">
         <v>11</v>
@@ -2006,16 +2006,16 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2392</v>
+        <v>160</v>
       </c>
       <c r="D88" t="n">
         <v>11</v>
@@ -2024,7 +2024,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2314</v>
+        <v>2392</v>
       </c>
       <c r="D89" t="n">
         <v>11</v>
@@ -2042,7 +2042,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2463</v>
+        <v>2314</v>
       </c>
       <c r="D90" t="n">
         <v>11</v>
@@ -2060,16 +2060,16 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>10687</v>
+        <v>2463</v>
       </c>
       <c r="D91" t="n">
         <v>11</v>
@@ -2078,16 +2078,16 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Beijing</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3036</v>
+        <v>10687</v>
       </c>
       <c r="D92" t="n">
         <v>11</v>
@@ -2096,7 +2096,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ostrava</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3120</v>
+        <v>3036</v>
       </c>
       <c r="D93" t="n">
         <v>11</v>
@@ -2114,16 +2114,16 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Aachen</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2245</v>
+        <v>3120</v>
       </c>
       <c r="D94" t="n">
         <v>11</v>
@@ -2132,7 +2132,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Aachen</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2734</v>
+        <v>2245</v>
       </c>
       <c r="D95" t="n">
         <v>11</v>
@@ -2150,7 +2150,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bamberg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2716</v>
+        <v>2734</v>
       </c>
       <c r="D96" t="n">
         <v>11</v>
@@ -2168,7 +2168,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bielefeld</t>
+          <t>Bamberg</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2432</v>
+        <v>2716</v>
       </c>
       <c r="D97" t="n">
         <v>11</v>
@@ -2186,7 +2186,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2439</v>
+        <v>2432</v>
       </c>
       <c r="D98" t="n">
         <v>11</v>
@@ -2204,7 +2204,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bremerhaven</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2417</v>
+        <v>2439</v>
       </c>
       <c r="D99" t="n">
         <v>11</v>
@@ -2222,7 +2222,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Brunswick</t>
+          <t>Bremerhaven</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2641</v>
+        <v>2417</v>
       </c>
       <c r="D100" t="n">
         <v>11</v>
@@ -2240,7 +2240,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Chemnitz</t>
+          <t>Brunswick</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2852</v>
+        <v>2641</v>
       </c>
       <c r="D101" t="n">
         <v>11</v>
@@ -2258,7 +2258,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cologne</t>
+          <t>Chemnitz</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2310</v>
+        <v>2852</v>
       </c>
       <c r="D102" t="n">
         <v>11</v>
@@ -2276,7 +2276,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Constance</t>
+          <t>Cologne</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2549</v>
+        <v>2310</v>
       </c>
       <c r="D103" t="n">
         <v>11</v>
@@ -2294,7 +2294,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Constance</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2916</v>
+        <v>2549</v>
       </c>
       <c r="D104" t="n">
         <v>11</v>
@@ -2312,7 +2312,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2461</v>
+        <v>2916</v>
       </c>
       <c r="D105" t="n">
         <v>11</v>
@@ -2330,7 +2330,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2339,7 +2339,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2276</v>
+        <v>2461</v>
       </c>
       <c r="D106" t="n">
         <v>11</v>
@@ -2348,7 +2348,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Dresden</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2887</v>
+        <v>2276</v>
       </c>
       <c r="D107" t="n">
         <v>11</v>
@@ -2366,7 +2366,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Dresden</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2288</v>
+        <v>2887</v>
       </c>
       <c r="D108" t="n">
         <v>11</v>
@@ -2384,7 +2384,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Erfurt</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2713</v>
+        <v>2288</v>
       </c>
       <c r="D109" t="n">
         <v>11</v>
@@ -2402,7 +2402,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Erlangen</t>
+          <t>Erfurt</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2733</v>
+        <v>2713</v>
       </c>
       <c r="D110" t="n">
         <v>11</v>
@@ -2420,7 +2420,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Flensburg</t>
+          <t>Erlangen</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2474</v>
+        <v>2733</v>
       </c>
       <c r="D111" t="n">
         <v>11</v>
@@ -2438,7 +2438,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Frankfurt am Main</t>
+          <t>Flensburg</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2445</v>
+        <v>2474</v>
       </c>
       <c r="D112" t="n">
         <v>11</v>
@@ -2456,7 +2456,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Freiburg im Breisgau</t>
+          <t>Frankfurt am Main</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2408</v>
+        <v>2445</v>
       </c>
       <c r="D113" t="n">
         <v>11</v>
@@ -2474,7 +2474,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gera</t>
+          <t>Freiburg im Breisgau</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2799</v>
+        <v>2408</v>
       </c>
       <c r="D114" t="n">
         <v>11</v>
@@ -2492,7 +2492,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Görlitz</t>
+          <t>Gera</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2942</v>
+        <v>2799</v>
       </c>
       <c r="D115" t="n">
         <v>11</v>
@@ -2510,7 +2510,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Halle (Saale)</t>
+          <t>Görlitz</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2782</v>
+        <v>2942</v>
       </c>
       <c r="D116" t="n">
         <v>11</v>
@@ -2528,7 +2528,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Halle (Saale)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2376</v>
+        <v>2782</v>
       </c>
       <c r="D117" t="n">
         <v>11</v>
@@ -2546,7 +2546,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Heilbronn</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2527</v>
+        <v>2376</v>
       </c>
       <c r="D118" t="n">
         <v>11</v>
@@ -2564,7 +2564,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Jena</t>
+          <t>Heilbronn</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2757</v>
+        <v>2527</v>
       </c>
       <c r="D119" t="n">
         <v>11</v>
@@ -2582,7 +2582,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Jena</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2390</v>
+        <v>2757</v>
       </c>
       <c r="D120" t="n">
         <v>11</v>
@@ -2600,7 +2600,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2441</v>
+        <v>2390</v>
       </c>
       <c r="D121" t="n">
         <v>11</v>
@@ -2618,7 +2618,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Kassel</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2524</v>
+        <v>2441</v>
       </c>
       <c r="D122" t="n">
         <v>11</v>
@@ -2636,7 +2636,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Kiel</t>
+          <t>Kassel</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2554</v>
+        <v>2524</v>
       </c>
       <c r="D123" t="n">
         <v>11</v>
@@ -2654,7 +2654,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Koblenz</t>
+          <t>Kiel</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2369</v>
+        <v>2554</v>
       </c>
       <c r="D124" t="n">
         <v>11</v>
@@ -2672,7 +2672,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Leipzig</t>
+          <t>Koblenz</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2806</v>
+        <v>2369</v>
       </c>
       <c r="D125" t="n">
         <v>11</v>
@@ -2690,7 +2690,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Lübeck</t>
+          <t>Leipzig</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2630</v>
+        <v>2806</v>
       </c>
       <c r="D126" t="n">
         <v>11</v>
@@ -2708,7 +2708,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Lübeck</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2748</v>
+        <v>2630</v>
       </c>
       <c r="D127" t="n">
         <v>11</v>
@@ -2726,7 +2726,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2442</v>
+        <v>2748</v>
       </c>
       <c r="D128" t="n">
         <v>11</v>
@@ -2744,7 +2744,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Munich</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2784</v>
+        <v>2442</v>
       </c>
       <c r="D129" t="n">
         <v>11</v>
@@ -2762,7 +2762,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Mönchengladbach</t>
+          <t>Munich</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2272</v>
+        <v>2784</v>
       </c>
       <c r="D130" t="n">
         <v>11</v>
@@ -2780,7 +2780,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Münster</t>
+          <t>Mönchengladbach</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2359</v>
+        <v>2272</v>
       </c>
       <c r="D131" t="n">
         <v>11</v>
@@ -2798,7 +2798,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Nuremberg</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2730</v>
+        <v>2359</v>
       </c>
       <c r="D132" t="n">
         <v>11</v>
@@ -2816,7 +2816,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Oldenburg</t>
+          <t>Nuremberg</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2395</v>
+        <v>2730</v>
       </c>
       <c r="D133" t="n">
         <v>11</v>
@@ -2834,7 +2834,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Osnabrück</t>
+          <t>Oldenburg</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2389</v>
+        <v>2395</v>
       </c>
       <c r="D134" t="n">
         <v>11</v>
@@ -2852,7 +2852,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Osnabrück</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2448</v>
+        <v>2389</v>
       </c>
       <c r="D135" t="n">
         <v>11</v>
@@ -2870,7 +2870,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Potsdam</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2849</v>
+        <v>2448</v>
       </c>
       <c r="D136" t="n">
         <v>11</v>
@@ -2888,7 +2888,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Potsdam</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2818</v>
+        <v>2849</v>
       </c>
       <c r="D137" t="n">
         <v>11</v>
@@ -2906,7 +2906,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Reinbek</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2584</v>
+        <v>2818</v>
       </c>
       <c r="D138" t="n">
         <v>11</v>
@@ -2924,7 +2924,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Rostock</t>
+          <t>Reinbek</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2753</v>
+        <v>2584</v>
       </c>
       <c r="D139" t="n">
         <v>11</v>
@@ -2942,7 +2942,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Saarbruecken</t>
+          <t>Rostock</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2325</v>
+        <v>2753</v>
       </c>
       <c r="D140" t="n">
         <v>11</v>
@@ -2960,7 +2960,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Saarbruecken</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2514</v>
+        <v>2325</v>
       </c>
       <c r="D141" t="n">
         <v>11</v>
@@ -2978,7 +2978,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2637</v>
+        <v>2514</v>
       </c>
       <c r="D142" t="n">
         <v>11</v>
@@ -2996,7 +2996,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Wiesbaden</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2423</v>
+        <v>2637</v>
       </c>
       <c r="D143" t="n">
         <v>11</v>
@@ -3014,7 +3014,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Wuppertal</t>
+          <t>Wiesbaden</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2317</v>
+        <v>2423</v>
       </c>
       <c r="D144" t="n">
         <v>11</v>
@@ -3032,7 +3032,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Würzburg</t>
+          <t>Wuppertal</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2612</v>
+        <v>2317</v>
       </c>
       <c r="D145" t="n">
         <v>11</v>
@@ -3050,16 +3050,16 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Würzburg</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3751</v>
+        <v>2612</v>
       </c>
       <c r="D146" t="n">
         <v>11</v>
@@ -3068,7 +3068,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3902</v>
+        <v>3751</v>
       </c>
       <c r="D147" t="n">
         <v>11</v>
@@ -3086,16 +3086,16 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Palma de Mallorca</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2076</v>
+        <v>3902</v>
       </c>
       <c r="D148" t="n">
         <v>11</v>
@@ -3104,16 +3104,16 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Palma de Mallorca</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1897</v>
+        <v>2076</v>
       </c>
       <c r="D149" t="n">
         <v>11</v>
@@ -3122,7 +3122,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Clermont-Ferrand</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2094</v>
+        <v>1897</v>
       </c>
       <c r="D150" t="n">
         <v>11</v>
@@ -3140,7 +3140,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Colmar</t>
+          <t>Clermont-Ferrand</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2372</v>
+        <v>2094</v>
       </c>
       <c r="D151" t="n">
         <v>11</v>
@@ -3158,7 +3158,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Colmar</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2186</v>
+        <v>2372</v>
       </c>
       <c r="D152" t="n">
         <v>11</v>
@@ -3176,7 +3176,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2130</v>
+        <v>2186</v>
       </c>
       <c r="D153" t="n">
         <v>11</v>
@@ -3194,7 +3194,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2394</v>
+        <v>2130</v>
       </c>
       <c r="D154" t="n">
         <v>11</v>
@@ -3212,7 +3212,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2017</v>
+        <v>2394</v>
       </c>
       <c r="D155" t="n">
         <v>11</v>
@@ -3230,16 +3230,16 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Bristol</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1771</v>
+        <v>2017</v>
       </c>
       <c r="D156" t="n">
         <v>11</v>
@@ -3248,7 +3248,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>Bristol</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1965</v>
+        <v>1771</v>
       </c>
       <c r="D157" t="n">
         <v>11</v>
@@ -3266,7 +3266,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Cambridge</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1749</v>
+        <v>1965</v>
       </c>
       <c r="D158" t="n">
         <v>11</v>
@@ -3284,7 +3284,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Greenock</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1699</v>
+        <v>1749</v>
       </c>
       <c r="D159" t="n">
         <v>11</v>
@@ -3302,7 +3302,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Greenock</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1819</v>
+        <v>1699</v>
       </c>
       <c r="D160" t="n">
         <v>11</v>
@@ -3320,7 +3320,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1751</v>
+        <v>1819</v>
       </c>
       <c r="D161" t="n">
         <v>11</v>
@@ -3338,7 +3338,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1780</v>
+        <v>1751</v>
       </c>
       <c r="D162" t="n">
         <v>11</v>
@@ -3356,7 +3356,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sheffield</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1838</v>
+        <v>1780</v>
       </c>
       <c r="D163" t="n">
         <v>11</v>
@@ -3374,16 +3374,16 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Zagreb</t>
+          <t>Sheffield</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3032</v>
+        <v>1838</v>
       </c>
       <c r="D164" t="n">
         <v>11</v>
@@ -3392,16 +3392,16 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Cork</t>
+          <t>Zagreb</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1593</v>
+        <v>3032</v>
       </c>
       <c r="D165" t="n">
         <v>11</v>
@@ -3410,16 +3410,16 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Tehran</t>
+          <t>Cork</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5737</v>
+        <v>1593</v>
       </c>
       <c r="D166" t="n">
         <v>11</v>
@@ -3428,16 +3428,16 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Baghdad</t>
+          <t>Tehran</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>5314</v>
+        <v>5737</v>
       </c>
       <c r="D167" t="n">
         <v>11</v>
@@ -3446,16 +3446,16 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Reykjavik</t>
+          <t>Baghdad</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1510</v>
+        <v>5314</v>
       </c>
       <c r="D168" t="n">
         <v>11</v>
@@ -3464,16 +3464,16 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Turin</t>
+          <t>Reykjavik</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2405</v>
+        <v>1510</v>
       </c>
       <c r="D169" t="n">
         <v>11</v>
@@ -3482,16 +3482,16 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Turin</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>12964</v>
+        <v>2405</v>
       </c>
       <c r="D170" t="n">
         <v>11</v>
@@ -3500,16 +3500,16 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Phnom Penh</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>11478</v>
+        <v>12964</v>
       </c>
       <c r="D171" t="n">
         <v>11</v>
@@ -3518,16 +3518,16 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Phnom Penh</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>12389</v>
+        <v>11478</v>
       </c>
       <c r="D172" t="n">
         <v>11</v>
@@ -3536,16 +3536,16 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>4337</v>
+        <v>12389</v>
       </c>
       <c r="D173" t="n">
         <v>11</v>
@@ -3554,16 +3554,16 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Kaunas</t>
+          <t>Beirut</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3294</v>
+        <v>4337</v>
       </c>
       <c r="D174" t="n">
         <v>11</v>
@@ -3572,16 +3572,16 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Timbuktu</t>
+          <t>Kaunas</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1717</v>
+        <v>3294</v>
       </c>
       <c r="D175" t="n">
         <v>11</v>
@@ -3590,16 +3590,16 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ulaanbaatar</t>
+          <t>Timbuktu</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>9602</v>
+        <v>1717</v>
       </c>
       <c r="D176" t="n">
         <v>11</v>
@@ -3608,16 +3608,16 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Abuna</t>
+          <t>Ulaanbaatar</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2714</v>
+        <v>9602</v>
       </c>
       <c r="D177" t="n">
         <v>11</v>
@@ -3626,7 +3626,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Awka</t>
+          <t>Abuna</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2522</v>
+        <v>2714</v>
       </c>
       <c r="D178" t="n">
         <v>11</v>
@@ -3644,7 +3644,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Soba</t>
+          <t>Awka</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2681</v>
+        <v>2522</v>
       </c>
       <c r="D179" t="n">
         <v>11</v>
@@ -3662,16 +3662,16 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Soba</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2429</v>
+        <v>2681</v>
       </c>
       <c r="D180" t="n">
         <v>11</v>
@@ -3680,16 +3680,16 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>723</v>
+        <v>2429</v>
       </c>
       <c r="D181" t="n">
         <v>11</v>
@@ -3698,7 +3698,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>528</v>
+        <v>723</v>
       </c>
       <c r="D182" t="n">
         <v>11</v>
@@ -3716,16 +3716,16 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Gdansk</t>
+          <t>Lima</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3060</v>
+        <v>528</v>
       </c>
       <c r="D183" t="n">
         <v>11</v>
@@ -3734,7 +3734,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Katowice</t>
+          <t>Gdansk</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3743,7 +3743,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3134</v>
+        <v>3060</v>
       </c>
       <c r="D184" t="n">
         <v>11</v>
@@ -3752,7 +3752,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Krakow</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3205</v>
+        <v>3134</v>
       </c>
       <c r="D185" t="n">
         <v>11</v>
@@ -3770,7 +3770,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Lodz</t>
+          <t>Krakow</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3153</v>
+        <v>3205</v>
       </c>
       <c r="D186" t="n">
         <v>11</v>
@@ -3788,7 +3788,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Poznan</t>
+          <t>Lodz</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3012</v>
+        <v>3153</v>
       </c>
       <c r="D187" t="n">
         <v>11</v>
@@ -3806,7 +3806,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Szczecin</t>
+          <t>Poznan</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2907</v>
+        <v>3012</v>
       </c>
       <c r="D188" t="n">
         <v>11</v>
@@ -3824,7 +3824,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Wroclaw</t>
+          <t>Szczecin</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3031</v>
+        <v>2907</v>
       </c>
       <c r="D189" t="n">
         <v>11</v>
@@ -3842,16 +3842,16 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Jerusalem</t>
+          <t>Wroclaw</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4351</v>
+        <v>3031</v>
       </c>
       <c r="D190" t="n">
         <v>11</v>
@@ -3860,16 +3860,16 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Jerusalem</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3675</v>
+        <v>4351</v>
       </c>
       <c r="D191" t="n">
         <v>11</v>
@@ -3878,7 +3878,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Saint Petersburg</t>
+          <t>Moscow</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3396</v>
+        <v>3675</v>
       </c>
       <c r="D192" t="n">
         <v>11</v>
@@ -3896,16 +3896,16 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Saint Petersburg</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>11498</v>
+        <v>3396</v>
       </c>
       <c r="D193" t="n">
         <v>11</v>
@@ -3914,16 +3914,16 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Ljubljana</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2965</v>
+        <v>11498</v>
       </c>
       <c r="D194" t="n">
         <v>11</v>
@@ -3932,16 +3932,16 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Malmö</t>
+          <t>Ljubljana</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2798</v>
+        <v>2965</v>
       </c>
       <c r="D195" t="n">
         <v>11</v>
@@ -3950,16 +3950,16 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Bangkok</t>
+          <t>Malmö</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>10715</v>
+        <v>2798</v>
       </c>
       <c r="D196" t="n">
         <v>11</v>
@@ -3968,16 +3968,16 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Bangkok</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3562</v>
+        <v>10715</v>
       </c>
       <c r="D197" t="n">
         <v>11</v>
@@ -3986,16 +3986,16 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Istanbul</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3517</v>
+        <v>3562</v>
       </c>
       <c r="D198" t="n">
         <v>11</v>
@@ -4004,16 +4004,16 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Montevideo</t>
+          <t>Kyiv</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1138</v>
+        <v>3517</v>
       </c>
       <c r="D199" t="n">
         <v>11</v>
@@ -4022,16 +4022,16 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Montevideo</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>196</v>
+        <v>1138</v>
       </c>
       <c r="D200" t="n">
         <v>11</v>
@@ -4040,7 +4040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Albuquerque</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="D201" t="n">
         <v>11</v>
@@ -4058,7 +4058,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Batavia</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>644</v>
+        <v>273</v>
       </c>
       <c r="D202" t="n">
         <v>11</v>
@@ -4076,7 +4076,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Batavia</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1022</v>
+        <v>644</v>
       </c>
       <c r="D203" t="n">
         <v>11</v>
@@ -4094,7 +4094,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Boulder</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4103,7 +4103,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>277</v>
+        <v>1022</v>
       </c>
       <c r="D204" t="n">
         <v>11</v>
@@ -4112,7 +4112,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Boulder</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="D205" t="n">
         <v>11</v>
@@ -4130,7 +4130,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="D206" t="n">
         <v>11</v>
@@ -4148,7 +4148,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Eugene</t>
+          <t>Denver</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="D207" t="n">
         <v>11</v>
@@ -4166,7 +4166,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Fort Collins</t>
+          <t>Eugene</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="D208" t="n">
         <v>11</v>
@@ -4184,7 +4184,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Huntsville</t>
+          <t>Fort Collins</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4193,7 +4193,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>502</v>
+        <v>295</v>
       </c>
       <c r="D209" t="n">
         <v>11</v>
@@ -4202,7 +4202,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Huntsville</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4211,7 +4211,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>637</v>
+        <v>502</v>
       </c>
       <c r="D210" t="n">
         <v>11</v>
@@ -4220,7 +4220,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>443</v>
+        <v>637</v>
       </c>
       <c r="D211" t="n">
         <v>11</v>
@@ -4238,7 +4238,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>556</v>
+        <v>443</v>
       </c>
       <c r="D212" t="n">
         <v>11</v>
@@ -4256,7 +4256,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>New Orleans</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="D213" t="n">
         <v>11</v>
@@ -4274,7 +4274,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>New Orleans</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>568</v>
+        <v>400</v>
       </c>
       <c r="D214" t="n">
         <v>11</v>
@@ -4292,7 +4292,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Orlando</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1045</v>
+        <v>568</v>
       </c>
       <c r="D215" t="n">
         <v>11</v>
@@ -4310,7 +4310,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Providence</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1009</v>
+        <v>1045</v>
       </c>
       <c r="D216" t="n">
         <v>11</v>
@@ -4328,7 +4328,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Providence</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4337,7 +4337,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>49</v>
+        <v>1009</v>
       </c>
       <c r="D217" t="n">
         <v>11</v>
@@ -4346,7 +4346,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Sacramento</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4355,7 +4355,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D218" t="n">
         <v>11</v>
@@ -4364,7 +4364,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Santa Barbara</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D219" t="n">
         <v>11</v>
@@ -4382,7 +4382,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Santa Barbara</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4391,7 +4391,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D220" t="n">
         <v>11</v>
@@ -4400,7 +4400,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="D221" t="n">
         <v>11</v>
@@ -4418,7 +4418,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Stockton</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="D222" t="n">
         <v>11</v>
@@ -4436,7 +4436,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Stockton</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D223" t="n">
         <v>11</v>
@@ -4454,7 +4454,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Washington D.C.</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4463,7 +4463,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>855</v>
+        <v>84</v>
       </c>
       <c r="D224" t="n">
         <v>11</v>
@@ -4472,7 +4472,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Waterloo</t>
+          <t>Washington D.C.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4481,7 +4481,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>513</v>
+        <v>855</v>
       </c>
       <c r="D225" t="n">
         <v>11</v>
@@ -4490,16 +4490,16 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Ho Chi Minh City</t>
+          <t>Waterloo</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>11800</v>
+        <v>513</v>
       </c>
       <c r="D226" t="n">
         <v>11</v>
@@ -4508,16 +4508,16 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Ho Chi Minh City</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3268</v>
+        <v>11800</v>
       </c>
       <c r="D227" t="n">
         <v>11</v>
@@ -4526,18 +4526,36 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>3268</v>
+      </c>
+      <c r="D228" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
           <t>Johannesburg</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>ZAF</t>
         </is>
       </c>
-      <c r="C228" t="n">
+      <c r="C229" t="n">
         <v>3673</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D229" t="n">
         <v>11</v>
       </c>
     </row>
